--- a/Tabla.xlsx
+++ b/Tabla.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\VSCODE\Compilador\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0C4D8E-C880-4257-9015-53B44227C1D6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,220 +25,205 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="61">
-  <si>
-    <t xml:space="preserve">Simbolo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siguiente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{PROGRAMA}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decl_var</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{VAR}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INICIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decl_v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{id}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lista_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resto_listaid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{,}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{ENTERO,REAL,BOOLEANO},{VECTOR}</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="62">
+  <si>
+    <t>Simbolo</t>
+  </si>
+  <si>
+    <t>Anu</t>
+  </si>
+  <si>
+    <t>Primero</t>
+  </si>
+  <si>
+    <t>Siguiente</t>
+  </si>
+  <si>
+    <t>Programa</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>{PROGRAMA}</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>Decl_var</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>{VAR}</t>
+  </si>
+  <si>
+    <t>INICIO</t>
+  </si>
+  <si>
+    <t>Decl_v</t>
+  </si>
+  <si>
+    <t>{id}</t>
+  </si>
+  <si>
+    <t>Lista_id</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>Resto_listaid</t>
+  </si>
+  <si>
+    <t>{,}</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>{ENTERO,REAL,BOOLEANO},{VECTOR}</t>
   </si>
   <si>
     <t xml:space="preserve">; </t>
   </si>
   <si>
-    <t xml:space="preserve">Tipo_std</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{ENTERO},{REAL},{BOOLEANO}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instrucciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{INICIO}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lista_inst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{INICIO, id , LEE,ESCRIBE , SI ,MIENTRAS}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instrucción</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{INICIO},{id},{LEE,ESCRIBE},{SI},{MIENTRAS}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">; SINO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inst_simple</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resto_instsimple</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{opasigna},{[}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">variable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">opmul Y opsuma O ] ) id num ( NO CIERTO FALSO + - ENTONCES HACER ; SINO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resto_var</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{[}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inst_e/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{LEE},{ESCRIBE}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expresion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{id, num, (, NO, CIERTO, FALSO,+,-}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENTONCES HACER ; SINO )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expresion'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{oprel}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expr_simple</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{id, num, (, NO, CIERTO, FALSO},{+,-}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">] )  ENTONCES HACER ; SINO oprel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resto_exsimple</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{opsuma},{O}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">termino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{id, num, (, NO, CIERTO, FALSO}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">opsuma O ] )  ENTONCES HACER ; SINO oprel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resto_term</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{opmult},{Y}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{id},{num},{(},{NO},{CIERTO}, {FALSO}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">opmul Y opsuma O ] )  ENTONCES HACER ; SINO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{+},{-}</t>
+    <t>Tipo_std</t>
+  </si>
+  <si>
+    <t>{ENTERO},{REAL},{BOOLEANO}</t>
+  </si>
+  <si>
+    <t>Instrucciones</t>
+  </si>
+  <si>
+    <t>{INICIO}</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>lista_inst</t>
+  </si>
+  <si>
+    <t>{INICIO, id , LEE,ESCRIBE , SI ,MIENTRAS}</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>Instrucción</t>
+  </si>
+  <si>
+    <t>{INICIO},{id},{LEE,ESCRIBE},{SI},{MIENTRAS}</t>
+  </si>
+  <si>
+    <t>; SINO</t>
+  </si>
+  <si>
+    <t>inst_simple</t>
+  </si>
+  <si>
+    <t>resto_instsimple</t>
+  </si>
+  <si>
+    <t>{opasigna},{[}</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>opmul Y opsuma O ] ) id num ( NO CIERTO FALSO + - ENTONCES HACER ; SINO</t>
+  </si>
+  <si>
+    <t>resto_var</t>
+  </si>
+  <si>
+    <t>{[}</t>
+  </si>
+  <si>
+    <t>inst_e/s</t>
+  </si>
+  <si>
+    <t>{LEE},{ESCRIBE}</t>
+  </si>
+  <si>
+    <t>expresion</t>
+  </si>
+  <si>
+    <t>{id, num, (, NO, CIERTO, FALSO,+,-}</t>
+  </si>
+  <si>
+    <t>ENTONCES HACER ; SINO )</t>
+  </si>
+  <si>
+    <t>expresion'</t>
+  </si>
+  <si>
+    <t>{oprel}</t>
+  </si>
+  <si>
+    <t>expr_simple</t>
+  </si>
+  <si>
+    <t>{id, num, (, NO, CIERTO, FALSO},{+,-}</t>
+  </si>
+  <si>
+    <t>] )  ENTONCES HACER ; SINO oprel</t>
+  </si>
+  <si>
+    <t>resto_exsimple</t>
+  </si>
+  <si>
+    <t>{opsuma},{O}</t>
+  </si>
+  <si>
+    <t>termino</t>
+  </si>
+  <si>
+    <t>{id, num, (, NO, CIERTO, FALSO}</t>
+  </si>
+  <si>
+    <t>opsuma O ] )  ENTONCES HACER ; SINO oprel</t>
+  </si>
+  <si>
+    <t>resto_term</t>
+  </si>
+  <si>
+    <t>{opmult},{Y}</t>
+  </si>
+  <si>
+    <t>factor</t>
+  </si>
+  <si>
+    <t>{id},{num},{(},{NO},{CIERTO}, {FALSO}</t>
+  </si>
+  <si>
+    <t>signo</t>
+  </si>
+  <si>
+    <t>{+},{-}</t>
+  </si>
+  <si>
+    <t>opmul Y opsuma O ] )  ENTONCES HACER ; SINO oprel</t>
+  </si>
+  <si>
+    <t>id, num, (, NO, CIERTO, FALSO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -245,7 +235,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -253,75 +243,346 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B2:F25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:F30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="37.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="70.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="9.14"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" customWidth="1"/>
+    <col min="5" max="5" width="70.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="1025" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -338,7 +599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -355,7 +616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
@@ -372,7 +633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
@@ -389,7 +650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -406,7 +667,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
@@ -423,7 +684,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
@@ -440,7 +701,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
@@ -457,7 +718,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
@@ -474,7 +735,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
@@ -491,7 +752,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
@@ -508,7 +769,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>32</v>
       </c>
@@ -525,7 +786,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
@@ -542,7 +803,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>35</v>
       </c>
@@ -553,13 +814,13 @@
         <v>13</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>37</v>
       </c>
@@ -570,13 +831,13 @@
         <v>38</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>39</v>
       </c>
@@ -593,7 +854,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>41</v>
       </c>
@@ -610,7 +871,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>44</v>
       </c>
@@ -627,7 +888,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>46</v>
       </c>
@@ -644,7 +905,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>49</v>
       </c>
@@ -661,7 +922,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>51</v>
       </c>
@@ -678,7 +939,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>54</v>
       </c>
@@ -695,7 +956,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>56</v>
       </c>
@@ -706,36 +967,36 @@
         <v>57</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E30" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Tabla.xlsx
+++ b/Tabla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\VSCODE\Compilador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0C4D8E-C880-4257-9015-53B44227C1D6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9B0A49-4F15-47C9-8706-4CD628CB43FB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -567,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tabla.xlsx
+++ b/Tabla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\VSCODE\Compilador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9B0A49-4F15-47C9-8706-4CD628CB43FB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999259E9-0A56-466D-9E05-DF2FD90A71ED}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -567,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
